--- a/VectorCalculator.xlsx
+++ b/VectorCalculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김장원\Documents\GitHub\PERSONAL_STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,34 @@
   </si>
   <si>
     <t>θ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m * v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m * v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m * v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +177,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,18 +299,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +307,54 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,9 +647,10 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -575,8 +658,14 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3" t="s">
@@ -593,43 +682,79 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="19"/>
+      <c r="J2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>0.9</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>2.1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>1.2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="19"/>
+      <c r="J3" s="25">
+        <v>2</v>
+      </c>
+      <c r="K3" s="24">
+        <v>5</v>
+      </c>
+      <c r="L3" s="28">
+        <v>8</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="17">
         <f>SQRT(C3*C3+D3*D3+E3*E3+F3*F3)</f>
         <v>2.5806975801127883</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="19"/>
+      <c r="J4" s="25">
+        <v>3</v>
+      </c>
+      <c r="K4" s="24">
+        <v>6</v>
+      </c>
+      <c r="L4" s="28">
+        <v>9</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -652,8 +777,22 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="19"/>
+      <c r="J5" s="25">
+        <v>4</v>
+      </c>
+      <c r="K5" s="24">
+        <v>7</v>
+      </c>
+      <c r="L5" s="28">
+        <v>10</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -661,8 +800,22 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="6"/>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
@@ -678,41 +831,63 @@
         <v>3</v>
       </c>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>-4.5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>2.6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>-0.8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="17">
         <f>SQRT(C8*C8+D8*D8+E8*E8+F8*F8)</f>
         <v>5.2583267300539633</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
+      <c r="J9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -734,8 +909,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="6"/>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="26">
+        <f>$J$3*J10+$K$3*J11+$L$3*J12+$M$3*J13</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -743,8 +929,19 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="6"/>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="26">
+        <f>$J$4*J10+$K$4*J11+$L$4*J12+$M$4*J13</f>
+        <v>3</v>
+      </c>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -752,124 +949,206 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="26">
+        <f>$J$5*J10+$K$5*J11+$L$5*J12+$M$5*J13</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="17">
         <f>C3*C8+D3*D8+E3*E8+F3*F8</f>
         <v>0.45000000000000107</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="6"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3">
+        <f>$J$6*J10+$K$6*J11+$L$6*J12+$M$6*J13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="17">
         <f>C3*C10 + D3*D10 + E3*E10 + F3*F10</f>
         <v>0.17437145811572913</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f>C3*$C$14</f>
         <v>0.15693431230415622</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>D3*$C$14</f>
         <v>0.36618006204303116</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>E3*$C$14</f>
         <v>0.20924574973887494</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>F3*$C$14</f>
         <v>0</v>
       </c>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="6"/>
+      <c r="J15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f>C3-C8</f>
         <v>5.4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>D3-D8</f>
         <v>-0.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>E3-E8</f>
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>F3-F8</f>
         <v>0</v>
       </c>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="27">
+        <f>$J$3*J16+$K$3*J17+$L$3*J18+$M$3*J19</f>
+        <v>5</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <f>SQRT(C16*C16+D16*D16+E16*E16+F16*F16)</f>
         <v>5.7801384066473709</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="6"/>
+      <c r="J17" s="22">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="27">
+        <f>$J$4*J16+$K$4*J17+$L$4*J18+$M$4*J19</f>
+        <v>6</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <f>C13/(C4*C9)</f>
         <v>3.3161016244789308E-2</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="6"/>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="27">
+        <f>$J$5*J16+$K$5*J17+$L$5*J18+$M$5*J19</f>
+        <v>7</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="17">
         <f>ACOS(C18)</f>
         <v>1.5376292299388494</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="6"/>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3">
+        <f>$J$6*J16+$K$6*J17+$L$6*J18+$M$6*J19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -877,9 +1156,88 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="6"/>
+      <c r="J21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="6"/>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="29">
+        <f>$J$3*J22+$K$3*J23+$L$3*J24+$M$3*J25</f>
+        <v>8</v>
+      </c>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="29">
+        <f>$J$4*J22+$K$4*J23+$L$4*J24+$M$4*J25</f>
+        <v>9</v>
+      </c>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="6"/>
+      <c r="J24" s="22">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="29">
+        <f>$J$5*J22+$K$5*J23+$L$5*J24+$M$5*J25</f>
+        <v>10</v>
+      </c>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="6"/>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="3">
+        <f>$J$6*J22+$K$6*J23+$L$6*J24+$M$6*J25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C4:F4"/>
